--- a/pred_ohlcv/54_21/2020-01-22 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>12575.1695</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>20210.7295</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -938,7 +938,7 @@
         <v>10768.5481</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1757.296600000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-14613.9688</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-14633.9689</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12772.4836</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-12851.19836888388</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9840.471868883878</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9840.471868883878</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-11161.74556888388</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-10066.41956888388</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9066.419568883881</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8066.419568883881</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-7792.452768883881</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5782.452768883881</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5610.651268883881</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2970.886331116119</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2963.886331116119</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3121.368231116118</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3320.838031116118</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>13171.71423111612</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>18936.57483111612</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>9681.84683111612</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>8742.621031116119</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>12606.44393111612</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>17492.48333111612</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>26959.56323111612</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>28959.56323111612</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>12575.1695</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>20210.7295</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -990,7 +990,7 @@
         <v>10768.5481</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>10762.3141</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>15245.7034</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1754.496600000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-14613.9688</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-14633.9689</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-11474.84416888388</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-11161.74556888388</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-7792.452768883881</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5782.452768883881</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5610.651268883881</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2970.886331116119</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2963.886331116119</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3121.368231116118</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3320.838031116118</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2071.376131116118</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>13171.71423111612</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>16327.44953111612</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>16327.44953111612</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>16190.20613111612</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>16165.72423111612</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>18936.57483111612</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>9681.84683111612</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>8742.621031116119</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>8734.023331116119</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>14299.75833111612</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>12606.44393111612</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>19426.40993111612</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>17492.48333111612</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>25972.56333111612</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>26959.56323111612</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>28959.56323111612</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
